--- a/orderREX.xlsx
+++ b/orderREX.xlsx
@@ -6,18 +6,18 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="pocreate" r:id="rId3" sheetId="1"/>
+    <sheet name="po_create" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="86">
   <si>
     <t>Order #:</t>
   </si>
   <si>
-    <t>1160401</t>
+    <t>1162590</t>
   </si>
   <si>
     <t>Vendor:</t>
@@ -29,7 +29,7 @@
     <t>Created :</t>
   </si>
   <si>
-    <t>2021-02-02 10:01:10</t>
+    <t>2021-02-20 06:45:55</t>
   </si>
   <si>
     <t>Contact Person:</t>
@@ -41,7 +41,7 @@
     <t>Due Date:</t>
   </si>
   <si>
-    <t>2021-02-07 10:01:10</t>
+    <t>2021-02-25 06:45:55</t>
   </si>
   <si>
     <t>Mobile:</t>
@@ -62,70 +62,214 @@
     <t>m.hmoud.alqahtani@ascend.com.sa</t>
   </si>
   <si>
-    <t>Code Product</t>
-  </si>
-  <si>
-    <t>Description Prodcut:</t>
-  </si>
-  <si>
-    <t>Category:</t>
-  </si>
-  <si>
-    <t>Quantity:</t>
-  </si>
-  <si>
-    <t>UOM:</t>
-  </si>
-  <si>
-    <t>4229542200100</t>
-  </si>
-  <si>
-    <t>WIPES SKIN PREPARATION CHLORHEXIDINE</t>
+    <t>Product Code</t>
+  </si>
+  <si>
+    <t>Product Description</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>UOM</t>
+  </si>
+  <si>
+    <t>4214252308200</t>
+  </si>
+  <si>
+    <t>K1 AUTO DISABLE SAFETY SYRINGES STERILE 1 ML WITH NEEDLE 25X1</t>
   </si>
   <si>
     <t>Medical equipment</t>
   </si>
   <si>
+    <t>4231150503500</t>
+  </si>
+  <si>
+    <t>TAPE POROUS ADHE TRANSLUCENT 2.5CMX9M</t>
+  </si>
+  <si>
+    <t>Vaccine kit</t>
+  </si>
+  <si>
+    <t>4231151200100</t>
+  </si>
+  <si>
+    <t>GAUZE SWAB 10X10CM 12 PLY STERILE</t>
+  </si>
+  <si>
+    <t>4231150503000</t>
+  </si>
+  <si>
+    <t>TAPE ZINC OXIDE SELF ADHESIVE 5CMX9M</t>
+  </si>
+  <si>
+    <t>4231150503100</t>
+  </si>
+  <si>
+    <t>TAPE ZINC OXIDE SELF ADHESIVE 7.5CMX9M</t>
+  </si>
+  <si>
+    <t>4213161100200</t>
+  </si>
+  <si>
+    <t>CAP SURGEON BLUE OR GREEN HOOD TYPE TIE</t>
+  </si>
+  <si>
+    <t>PPE</t>
+  </si>
+  <si>
+    <t>each</t>
+  </si>
+  <si>
+    <t>5115170300100</t>
+  </si>
+  <si>
+    <t>EPINEPHRINE 150 MCG (FOR PEDIATRICS ANAPHYLACTIC SHOCK)</t>
+  </si>
+  <si>
+    <t>General Supplies</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>5115170300300</t>
+  </si>
+  <si>
+    <t>EPINEPHRINE 300 MCG (1:1000) AUTO-INJECTOR FOR ADULT</t>
+  </si>
+  <si>
+    <t>5119160202700</t>
+  </si>
+  <si>
+    <t>FLUIDS: SODIUM CHLORIDE 0.9%, 10ML-25ML</t>
+  </si>
+  <si>
+    <t>Ampoule</t>
+  </si>
+  <si>
+    <t>4214150100100</t>
+  </si>
+  <si>
+    <t>COTTON BALL 250GM-PACKING: 250BALL/PACK</t>
+  </si>
+  <si>
+    <t>PKT</t>
+  </si>
+  <si>
+    <t>4231150503800</t>
+  </si>
+  <si>
+    <t>STRIP ADHESIVE WATER PROOF 2.5X7.2CM</t>
+  </si>
+  <si>
     <t>PC</t>
   </si>
   <si>
-    <t>4618180400000</t>
-  </si>
-  <si>
-    <t>GOGGLES ANTI-FOG FEATURE SINGLE USE</t>
-  </si>
-  <si>
-    <t>PPE</t>
-  </si>
-  <si>
-    <t>4618170200000</t>
-  </si>
-  <si>
-    <t>FACE SHIELD WRAP AROUND</t>
-  </si>
-  <si>
-    <t>4713150200800</t>
-  </si>
-  <si>
-    <t>WIPE DISINFECTANT ALCOHOL FREE</t>
+    <t>4214150400800</t>
+  </si>
+  <si>
+    <t>SWAB MEDICATED 4X4CM 2% CLOROHEXIIDINE</t>
+  </si>
+  <si>
+    <t>4231151202900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gauze SWAB 5X5 CM </t>
+  </si>
+  <si>
+    <t>4214252314900</t>
+  </si>
+  <si>
+    <t>1 ml syringes graduation 0.01 ml</t>
+  </si>
+  <si>
+    <t>4214252312000</t>
+  </si>
+  <si>
+    <t>Needle Hypodermic 23x1  0.60x25mm BLUE</t>
+  </si>
+  <si>
+    <t>4214252310200</t>
+  </si>
+  <si>
+    <t>23 gauge 1 inch needle</t>
+  </si>
+  <si>
+    <t>4213160600000</t>
+  </si>
+  <si>
+    <t>MASK SURGEON DISPOSABLE</t>
+  </si>
+  <si>
+    <t>4213161200100</t>
+  </si>
+  <si>
+    <t>GOWN FOR ISOLATION IMPERMEABLE L</t>
+  </si>
+  <si>
+    <t>4213220300000</t>
+  </si>
+  <si>
+    <t>EXAMINATION LATEX GLOVES SIZE M</t>
+  </si>
+  <si>
+    <t>4213220300100</t>
+  </si>
+  <si>
+    <t>EXAMINATION LATEX GLOVES SIZE S</t>
+  </si>
+  <si>
+    <t>4213161100000</t>
+  </si>
+  <si>
+    <t>Head Covers</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>4228160310200</t>
+  </si>
+  <si>
+    <t>ALCOHOL GEL- DESKTOP DISPENSER</t>
   </si>
   <si>
     <t>Pharma supplies</t>
   </si>
   <si>
-    <t>4218220500400</t>
-  </si>
-  <si>
-    <t>PLASTIC COVER FOR ELECTRONIC THERMOMETER</t>
-  </si>
-  <si>
-    <t>PFIZER_COVID-19</t>
-  </si>
-  <si>
-    <t>Pfizer covid-19 vaccine</t>
-  </si>
-  <si>
-    <t>Covid Vaccine</t>
+    <t>4228160310100</t>
+  </si>
+  <si>
+    <t>ALCOHOL GEL WALL MOUNTED</t>
+  </si>
+  <si>
+    <t>4219181300000</t>
+  </si>
+  <si>
+    <t>PAPER-EXAM COUCH 60-80CM X30 YARD/ROLL</t>
+  </si>
+  <si>
+    <t>ROL</t>
+  </si>
+  <si>
+    <t>4231150502900</t>
+  </si>
+  <si>
+    <t>TAPE ZINC OXIDE SELF ADHESIVE 2.5CMX9M</t>
+  </si>
+  <si>
+    <t>ASTRA_COVID-19</t>
+  </si>
+  <si>
+    <t>astrazenica covid-19 vaccine</t>
+  </si>
+  <si>
+    <t>Covid Vaccine Pfize</t>
   </si>
 </sst>
 </file>
@@ -214,10 +358,10 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="17.01171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.57421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="69.05078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="20.15234375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="43.95703125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="8.28125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="9.97265625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -304,94 +448,422 @@
         <v>23</v>
       </c>
       <c r="D7" t="n" s="3">
-        <v>28.0</v>
-      </c>
-      <c r="E7" t="s" s="3">
-        <v>24</v>
-      </c>
+        <v>80.0</v>
+      </c>
+      <c r="E7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s" s="3">
         <v>25</v>
       </c>
-      <c r="B8" t="s" s="3">
+      <c r="C8" t="s" s="3">
         <v>26</v>
       </c>
-      <c r="C8" t="s" s="3">
-        <v>27</v>
-      </c>
       <c r="D8" t="n" s="3">
-        <v>28.0</v>
-      </c>
-      <c r="E8" t="s" s="3">
-        <v>24</v>
-      </c>
+        <v>65.0</v>
+      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s" s="3">
         <v>28</v>
       </c>
-      <c r="B9" t="s" s="3">
-        <v>29</v>
-      </c>
       <c r="C9" t="s" s="3">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D9" t="n" s="3">
-        <v>28.0</v>
-      </c>
-      <c r="E9" t="s" s="3">
-        <v>24</v>
-      </c>
+        <v>16000.0</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s" s="3">
         <v>30</v>
       </c>
-      <c r="B10" t="s" s="3">
-        <v>31</v>
-      </c>
       <c r="C10" t="s" s="3">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D10" t="n" s="3">
-        <v>28.0</v>
-      </c>
-      <c r="E10" t="s" s="3">
-        <v>24</v>
-      </c>
+        <v>130.0</v>
+      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s" s="3">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s" s="3">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D11" t="n" s="3">
-        <v>28.0</v>
-      </c>
-      <c r="E11" t="s" s="3">
-        <v>24</v>
-      </c>
+        <v>120.0</v>
+      </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s" s="3">
         <v>35</v>
       </c>
-      <c r="B12" t="s" s="3">
+      <c r="D12" t="n" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="E12" t="s" s="3">
         <v>36</v>
       </c>
-      <c r="C12" t="s" s="3">
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="3">
         <v>37</v>
       </c>
-      <c r="D12" t="n" s="3">
+      <c r="B13" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="D13" t="n" s="3">
+        <v>128.0</v>
+      </c>
+      <c r="E13" t="s" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="D14" t="n" s="3">
+        <v>98.0</v>
+      </c>
+      <c r="E14" t="s" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="D15" t="n" s="3">
+        <v>5595.0</v>
+      </c>
+      <c r="E15" t="s" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="3">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s" s="3">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="D16" t="n" s="3">
+        <v>930.0</v>
+      </c>
+      <c r="E16" t="s" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="3">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="D17" t="n" s="3">
+        <v>99400.0</v>
+      </c>
+      <c r="E17" t="s" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s" s="3">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="D18" t="n" s="3">
+        <v>99400.0</v>
+      </c>
+      <c r="E18" t="s" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s" s="3">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="D19" t="n" s="3">
+        <v>13130.0</v>
+      </c>
+      <c r="E19" t="s" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="3">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s" s="3">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="D20" t="n" s="3">
+        <v>30480.0</v>
+      </c>
+      <c r="E20" t="s" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="3">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s" s="3">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="D21" t="n" s="3">
+        <v>95200.0</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="3">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="D22" t="n" s="3">
+        <v>38600.0</v>
+      </c>
+      <c r="E22" t="s" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="3">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="D23" t="n" s="3">
+        <v>13630.0</v>
+      </c>
+      <c r="E23" t="s" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="3">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="D24" t="n" s="3">
+        <v>6340.0</v>
+      </c>
+      <c r="E24" t="s" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="3">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n" s="3">
+        <v>198800.0</v>
+      </c>
+      <c r="E25" t="s" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="B26" t="s" s="3">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="D26" t="n" s="3">
+        <v>198800.0</v>
+      </c>
+      <c r="E26" t="s" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="B27" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="C27" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="D27" t="n" s="3">
+        <v>12940.0</v>
+      </c>
+      <c r="E27" t="s" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="3">
+        <v>73</v>
+      </c>
+      <c r="B28" t="s" s="3">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="D28" t="n" s="3">
+        <v>1950.0</v>
+      </c>
+      <c r="E28" t="s" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="B29" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="C29" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="D29" t="n" s="3">
+        <v>990.0</v>
+      </c>
+      <c r="E29" t="s" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s" s="3">
+        <v>79</v>
+      </c>
+      <c r="C30" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="D30" t="n" s="3">
+        <v>3761.8571428571427</v>
+      </c>
+      <c r="E30" t="s" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="3">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="D31" t="n" s="3">
+        <v>2206.666666666667</v>
+      </c>
+      <c r="E31" t="s" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="3">
+        <v>83</v>
+      </c>
+      <c r="B32" t="s" s="3">
+        <v>84</v>
+      </c>
+      <c r="C32" t="s" s="3">
+        <v>85</v>
+      </c>
+      <c r="D32" t="n" s="3">
         <v>28.0</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E32" s="3"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
